--- a/Project/Scrum/SoftwareProject.xlsx
+++ b/Project/Scrum/SoftwareProject.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Java\Project\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C85D42-C96C-483C-84C9-B02BD4F22D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684F23DC-2FF5-4C2E-A60E-37FF7F0C049D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="产品" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="129">
   <si>
     <t>PROJECT VISION</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -959,6 +959,13 @@
   <si>
     <t>作为一个用户，我希望在游戏中有商城，以便我可以购买物品</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1069,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1083,6 +1090,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0CFC67"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,7 +1284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1297,6 +1310,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1314,101 +1369,65 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1443,6 +1462,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0CFC67"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1731,157 +1755,157 @@
   <sheetData>
     <row r="2" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="42"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="42"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="42"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="42"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="42"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="42"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="42"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="42"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1909,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E305CF-67E5-4752-9BE0-76EDF4AD310B}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1927,323 +1951,354 @@
     <col min="13" max="13" width="9.6640625" style="3" customWidth="1"/>
     <col min="14" max="14" width="9.6640625" style="6" customWidth="1"/>
     <col min="15" max="15" width="9.33203125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:16" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="20" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="19" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="P1" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="40" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
       <c r="M2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N2" s="7">
         <v>95</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
+      <c r="P2" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N3" s="7">
         <v>91</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
+      <c r="P3" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
       <c r="M4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N4" s="7">
         <v>90</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="P4" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="40" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="7" t="s">
         <v>73</v>
       </c>
       <c r="N5" s="4">
         <v>85</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
+      <c r="P5" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="7" t="s">
         <v>73</v>
       </c>
       <c r="N6" s="7">
         <v>83</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
+      <c r="P6" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="7" t="s">
         <v>73</v>
       </c>
       <c r="N7" s="7">
         <v>80</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="P7" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="40" t="s">
         <v>126</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N8" s="7">
         <v>75</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
+      <c r="P8" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N9" s="7">
         <v>73</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28" t="s">
+      <c r="P9" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="26" t="s">
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="28" t="s">
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="13">
         <v>70</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -2254,7 +2309,7 @@
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:15" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
@@ -2265,7 +2320,7 @@
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -2276,7 +2331,7 @@
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -2287,7 +2342,7 @@
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
@@ -2298,7 +2353,7 @@
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:15" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -2333,35 +2388,35 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C2:D2 D3:D4">
@@ -2380,16 +2435,17 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A30D641-A572-4D9B-981B-C4EDD32AB48D}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2400,381 +2456,434 @@
     <col min="14" max="15" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:16" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="20" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="19" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="P1" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
         <v>4</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="40" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
       <c r="M2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7">
         <v>68</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
+      <c r="P2" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N3" s="7">
         <v>66</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="P3" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
         <v>5</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="40" t="s">
         <v>110</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
       <c r="M4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N4" s="7">
         <v>65</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
+      <c r="P4" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N5" s="7">
         <v>64</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
+      <c r="P5" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N6" s="7">
         <v>63</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
+      <c r="P6" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
       <c r="M7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="7">
         <v>62</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
+      <c r="P7" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N8" s="7">
         <v>61</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
+      <c r="P8" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N9" s="7">
         <v>60</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="P9" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
         <v>6</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="40" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16" t="s">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N10" s="7">
         <v>55</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
+      <c r="P10" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="7">
         <v>53</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="37" t="s">
+      <c r="P11" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="26" t="s">
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="28" t="s">
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="13">
         <v>50</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="P12" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:L3"/>
@@ -2791,23 +2900,6 @@
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="I8:L8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:L2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C10:D10 D11:D12">
@@ -2822,10 +2914,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F390417E-D5A1-4E6D-81D4-E96B87CF1F45}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2836,331 +2928,362 @@
     <col min="14" max="15" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:16" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="33" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="P1" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
         <v>7</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="40" t="s">
         <v>116</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
       <c r="M2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N2" s="7">
         <v>48</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
+      <c r="P2" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N3" s="7">
         <v>46</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
+      <c r="P3" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
       <c r="M4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N4" s="7">
         <v>45</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="P4" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
         <v>8</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="40" t="s">
         <v>90</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
       <c r="M5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N5" s="7">
         <v>42</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
+      <c r="P5" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="7">
         <v>41</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
+      <c r="P6" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N7" s="7">
         <v>40</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="P7" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
         <v>9</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="7" t="s">
         <v>73</v>
       </c>
       <c r="N8" s="7">
         <v>38</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="12">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
+      <c r="P8" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="7" t="s">
         <v>73</v>
       </c>
       <c r="N9" s="7">
         <v>36</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28" t="s">
+      <c r="P9" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29" t="s">
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="28" t="s">
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="13">
         <v>35</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="14">
         <v>2</v>
+      </c>
+      <c r="P10" s="47" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="E4:H4"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
@@ -3171,16 +3294,15 @@
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:L10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C2:D2">
